--- a/Testdata.xlsx
+++ b/Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14033\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A466E122-657B-4B28-BEF6-96EBC0FE0E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0E688A-2859-4695-AA64-CA8C228B5FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig4 offchain" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Encryption cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,15 +177,35 @@
     <t>三个等式的</t>
   </si>
   <si>
-    <t>把judgeAttrs和checkkey的gas消耗加起来就好，明天补充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测了多次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待补充</t>
+    <t>把judgeAttrs和checkkey的gas消耗加起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkkey1+judgeAttrs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkkey2+judgeAttrs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个等式的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judgeAttrs为混合门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为本身checkkey1的gas消耗大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以加起来使得整体消耗量大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +596,7 @@
         <v>10906</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -641,7 +661,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G7" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -666,14 +686,17 @@
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>39</v>
+      <c r="B4">
+        <v>9010466</v>
       </c>
       <c r="F4">
         <v>554329</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" t="s">
         <v>32</v>
       </c>
@@ -689,7 +712,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="M13" sqref="K3:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -996,17 +1019,197 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031AB5FE-5DF2-4DBC-8C6A-4400BFDE200C}">
-  <dimension ref="C1"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4">
+        <v>9010466</v>
+      </c>
+      <c r="Q4">
+        <v>554329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>9608272</v>
+      </c>
+      <c r="G8">
+        <v>1152135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>10168010</v>
+      </c>
+      <c r="G9">
+        <v>1711873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>10665467</v>
+      </c>
+      <c r="G10">
+        <v>2209330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>11143352</v>
+      </c>
+      <c r="G11">
+        <v>2687215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>11643222</v>
+      </c>
+      <c r="G12">
+        <v>3187085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>12196560</v>
+      </c>
+      <c r="G13">
+        <v>3740423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>12750587</v>
+      </c>
+      <c r="G14">
+        <v>4294450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>13288877</v>
+      </c>
+      <c r="G15">
+        <v>4832740</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>13779429</v>
+      </c>
+      <c r="G16">
+        <v>5323292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>14324902</v>
+      </c>
+      <c r="G17">
+        <v>5868765</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/Testdata.xlsx
+++ b/Testdata.xlsx
@@ -1,228 +1,264 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14033\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0E688A-2859-4695-AA64-CA8C228B5FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8095742-88DF-4023-9EAE-F63BE1B3817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig4 offchain" sheetId="2" r:id="rId1"/>
     <sheet name="Fig5 checkKey" sheetId="3" r:id="rId2"/>
-    <sheet name="Fig6 judgeAttrs" sheetId="4" r:id="rId3"/>
-    <sheet name="Fig7 verify" sheetId="5" r:id="rId4"/>
-    <sheet name="Fig8 incentive" sheetId="6" r:id="rId5"/>
-    <sheet name="Fig9,10,11 ABEtest" sheetId="1" r:id="rId6"/>
+    <sheet name="Fig6 judgeAttrs&amp;verify" sheetId="4" r:id="rId3"/>
+    <sheet name="Fig7 incentive" sheetId="6" r:id="rId4"/>
+    <sheet name="Fig8,9,10 ABEtest" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>ABEKeyGen</t>
+  </si>
+  <si>
+    <t>ABEKeyGen1</t>
+  </si>
+  <si>
+    <t>genProofs</t>
+  </si>
+  <si>
+    <t>getKey</t>
+  </si>
+  <si>
+    <t>(μs)</t>
+  </si>
+  <si>
+    <t>proofs size</t>
+  </si>
+  <si>
+    <t>1166 Bytes</t>
+  </si>
+  <si>
+    <t>1.1KB</t>
+  </si>
+  <si>
+    <t>checkkey</t>
+  </si>
+  <si>
+    <t>checkkey'</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>based on remix</t>
+  </si>
+  <si>
+    <t>judgeAttr</t>
+  </si>
+  <si>
+    <t>gas cost</t>
+  </si>
+  <si>
+    <t>AND-gate</t>
+  </si>
+  <si>
+    <t>OR-gate</t>
+  </si>
+  <si>
+    <t>Hybrid-gate1</t>
+  </si>
+  <si>
+    <t>Hybrid-gate2</t>
+  </si>
+  <si>
+    <t>Hybrid-gate3</t>
+  </si>
+  <si>
+    <t>Hybrid-gate4</t>
+  </si>
+  <si>
+    <t>Hybrid-gate5</t>
+  </si>
+  <si>
+    <t>attrs</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = judgeAttrs+checkkey</t>
+  </si>
+  <si>
+    <t>checkkey1+judgeAttrs</t>
+  </si>
+  <si>
+    <t>checkkey2+judgeAttrs</t>
+  </si>
+  <si>
+    <t>Expect</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Withdraw</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> authorities</t>
+  </si>
   <si>
     <t>Encryption cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keygen cost</t>
+  </si>
+  <si>
+    <t>Decryption cost</t>
   </si>
   <si>
     <t>CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keygen cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Key size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(kByte)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(μs)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(Byte)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decryption cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>attr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AND-gate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR-gate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time(ms)</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>8M</t>
+  </si>
+  <si>
+    <t>16M</t>
+  </si>
+  <si>
+    <t>32M</t>
+  </si>
+  <si>
+    <t>64M</t>
+  </si>
+  <si>
+    <t>128M</t>
+  </si>
+  <si>
+    <t>checkkey(off-chain)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plaintext Size(Mb)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciphertext Size(Mb)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attrs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gas cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多测了几组混合门的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hybrid-gate1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hybrid-gate2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hybrid-gate3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hybrid-gate4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hybrid-gate5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deposit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Withdraw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> authorities</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABEKeyGen</t>
-  </si>
-  <si>
-    <t>genProofs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABEKeyGen1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链下checkkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用Remix测的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkkey2</t>
-  </si>
-  <si>
-    <t>4个等式的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkkey1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个等式的</t>
-  </si>
-  <si>
-    <t>测了多次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把judgeAttrs和checkkey的gas消耗加起来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkkey1+judgeAttrs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkkey2+judgeAttrs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个等式的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>judgeAttrs为混合门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为本身checkkey1的gas消耗大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所以加起来使得整体消耗量大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8bit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for test</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plaintext</t>
+  </si>
+  <si>
+    <t>constant</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -249,8 +285,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -311,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -346,7 +386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -521,47 +561,42 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8D499B-063F-4EE6-8846-4803F1B32F47}">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1295</v>
@@ -579,7 +614,7 @@
         <v>10859</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>1299</v>
       </c>
@@ -595,11 +630,8 @@
       <c r="K3">
         <v>10906</v>
       </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>1324</v>
       </c>
@@ -616,7 +648,7 @@
         <v>10965</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1307</v>
       </c>
@@ -633,7 +665,7 @@
         <v>11155</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1277</v>
       </c>
@@ -650,41 +682,53 @@
         <v>10862</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B450950-1613-426D-9E49-B5653565CA89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:G7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>9010466</v>
@@ -695,714 +739,691 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F0D0BC-0CB9-4B9B-81D9-B9823D933E47}">
-  <dimension ref="A1:T12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="K3:M13"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>20</v>
+      <c r="A1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>565058</v>
-      </c>
-      <c r="G3">
-        <v>561742</v>
-      </c>
-      <c r="L3">
-        <v>597806</v>
-      </c>
-      <c r="N3">
-        <v>581832</v>
-      </c>
-      <c r="P3">
-        <v>580726</v>
-      </c>
-      <c r="R3">
-        <v>581454</v>
-      </c>
-      <c r="T3">
-        <v>581803</v>
+      <c r="A3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>1107178</v>
+        <v>565058</v>
       </c>
       <c r="G4">
-        <v>1100113</v>
+        <v>561742</v>
       </c>
       <c r="L4">
-        <v>1157544</v>
+        <v>597806</v>
       </c>
       <c r="N4">
-        <v>1086008</v>
+        <v>581832</v>
       </c>
       <c r="P4">
-        <v>1084892</v>
+        <v>580726</v>
       </c>
       <c r="R4">
-        <v>1086374</v>
+        <v>581454</v>
       </c>
       <c r="T4">
-        <v>1101670</v>
+        <v>581803</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>1588936</v>
+        <v>1107178</v>
       </c>
       <c r="G5">
-        <v>1595756</v>
+        <v>1100113</v>
       </c>
       <c r="L5">
-        <v>1655001</v>
+        <v>1157544</v>
       </c>
       <c r="N5">
-        <v>1601348</v>
+        <v>1086008</v>
       </c>
       <c r="P5">
-        <v>1583828</v>
+        <v>1084892</v>
       </c>
       <c r="R5">
-        <v>1581521</v>
+        <v>1086374</v>
       </c>
       <c r="T5">
-        <v>1654272</v>
+        <v>1101670</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>2158145</v>
+        <v>1588936</v>
       </c>
       <c r="G6">
-        <v>2161399</v>
+        <v>1595756</v>
       </c>
       <c r="L6">
-        <v>2132886</v>
+        <v>1655001</v>
       </c>
       <c r="N6">
-        <v>2133248</v>
+        <v>1601348</v>
       </c>
       <c r="P6">
-        <v>2115366</v>
+        <v>1583828</v>
       </c>
       <c r="R6">
-        <v>2132524</v>
+        <v>1581521</v>
       </c>
       <c r="T6">
-        <v>2168992</v>
+        <v>1654272</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>2659047</v>
+        <v>2158145</v>
       </c>
       <c r="G7">
-        <v>2606214</v>
+        <v>2161399</v>
       </c>
       <c r="L7">
-        <v>2632756</v>
+        <v>2132886</v>
       </c>
       <c r="N7">
-        <v>2665996</v>
+        <v>2133248</v>
       </c>
       <c r="P7">
-        <v>2684596</v>
+        <v>2115366</v>
       </c>
       <c r="R7">
-        <v>2630224</v>
+        <v>2132524</v>
       </c>
       <c r="T7">
-        <v>2630596</v>
+        <v>2168992</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C8">
-        <v>3231316</v>
+        <v>2659047</v>
       </c>
       <c r="G8">
-        <v>3139801</v>
+        <v>2606214</v>
       </c>
       <c r="L8">
-        <v>3186094</v>
+        <v>2632756</v>
       </c>
       <c r="N8">
-        <v>3167501</v>
+        <v>2665996</v>
       </c>
       <c r="P8">
-        <v>3147462</v>
+        <v>2684596</v>
       </c>
       <c r="R8">
-        <v>3202541</v>
+        <v>2630224</v>
       </c>
       <c r="T8">
-        <v>3167144</v>
+        <v>2630596</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>3683745</v>
+        <v>3231316</v>
       </c>
       <c r="G9">
-        <v>3641327</v>
+        <v>3139801</v>
       </c>
       <c r="L9">
-        <v>3740121</v>
+        <v>3186094</v>
       </c>
       <c r="N9">
-        <v>3707588</v>
+        <v>3167501</v>
       </c>
       <c r="P9">
-        <v>3778379</v>
+        <v>3147462</v>
       </c>
       <c r="R9">
-        <v>3742628</v>
+        <v>3202541</v>
       </c>
       <c r="T9">
-        <v>3691490</v>
+        <v>3167144</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C10">
-        <v>4230821</v>
+        <v>3683745</v>
       </c>
       <c r="G10">
-        <v>4189044</v>
+        <v>3641327</v>
       </c>
       <c r="L10">
-        <v>4278411</v>
+        <v>3740121</v>
       </c>
       <c r="N10">
-        <v>4212591</v>
+        <v>3707588</v>
       </c>
       <c r="P10">
-        <v>4210452</v>
+        <v>3778379</v>
       </c>
       <c r="R10">
-        <v>4248338</v>
+        <v>3742628</v>
       </c>
       <c r="T10">
-        <v>4211177</v>
+        <v>3691490</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>4765668</v>
+        <v>4230821</v>
       </c>
       <c r="G11">
-        <v>4716353</v>
+        <v>4189044</v>
       </c>
       <c r="L11">
-        <v>4768963</v>
+        <v>4278411</v>
       </c>
       <c r="N11">
-        <v>4766483</v>
+        <v>4212591</v>
       </c>
       <c r="P11">
-        <v>4747783</v>
+        <v>4210452</v>
       </c>
       <c r="R11">
-        <v>4732145</v>
+        <v>4248338</v>
       </c>
       <c r="T11">
-        <v>4713923</v>
+        <v>4211177</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>4765668</v>
+      </c>
+      <c r="G12">
+        <v>4716353</v>
+      </c>
+      <c r="L12">
+        <v>4768963</v>
+      </c>
+      <c r="N12">
+        <v>4766483</v>
+      </c>
+      <c r="P12">
+        <v>4747783</v>
+      </c>
+      <c r="R12">
+        <v>4732145</v>
+      </c>
+      <c r="T12">
+        <v>4713923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>100</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>5346008</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>5275838</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>5314436</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>5240810</v>
       </c>
-      <c r="P12">
+      <c r="P13">
         <v>5244917</v>
       </c>
-      <c r="R12">
+      <c r="R13">
         <v>5290846</v>
       </c>
-      <c r="T12">
+      <c r="T13">
         <v>5275075</v>
       </c>
     </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21">
+        <v>9010466</v>
+      </c>
+      <c r="Q21">
+        <v>554329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>9608272</v>
+      </c>
+      <c r="G25">
+        <v>1152135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>10168010</v>
+      </c>
+      <c r="G26">
+        <v>1711873</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>10665467</v>
+      </c>
+      <c r="G27">
+        <v>2209330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>11143352</v>
+      </c>
+      <c r="G28">
+        <v>2687215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>11643222</v>
+      </c>
+      <c r="G29">
+        <v>3187085</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>12196560</v>
+      </c>
+      <c r="G30">
+        <v>3740423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>12750587</v>
+      </c>
+      <c r="G31">
+        <v>4294450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>80</v>
+      </c>
+      <c r="C32">
+        <v>13288877</v>
+      </c>
+      <c r="G32">
+        <v>4832740</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>90</v>
+      </c>
+      <c r="C33">
+        <v>13779429</v>
+      </c>
+      <c r="G33">
+        <v>5323292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>14324902</v>
+      </c>
+      <c r="G34">
+        <v>5868765</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031AB5FE-5DF2-4DBC-8C6A-4400BFDE200C}">
-  <dimension ref="A1:Q20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>52248</v>
+      </c>
+      <c r="E4">
+        <v>29182</v>
+      </c>
+      <c r="G4">
+        <v>47035</v>
+      </c>
+      <c r="I4">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>256961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>368910</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>40</v>
       </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4">
-        <v>9010466</v>
-      </c>
-      <c r="Q4">
-        <v>554329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>480872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>9608272</v>
-      </c>
-      <c r="G8">
-        <v>1152135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>592822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>10168010</v>
-      </c>
-      <c r="G9">
-        <v>1711873</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>704749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>10665467</v>
-      </c>
-      <c r="G10">
-        <v>2209330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <v>816723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>11143352</v>
-      </c>
-      <c r="G11">
-        <v>2687215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="I11">
+        <v>928687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>11643222</v>
-      </c>
-      <c r="G12">
-        <v>3187085</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I12">
+        <v>1040650</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>60</v>
-      </c>
-      <c r="C13">
-        <v>12196560</v>
-      </c>
-      <c r="G13">
-        <v>3740423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>70</v>
-      </c>
-      <c r="C14">
-        <v>12750587</v>
-      </c>
-      <c r="G14">
-        <v>4294450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>80</v>
-      </c>
-      <c r="C15">
-        <v>13288877</v>
-      </c>
-      <c r="G15">
-        <v>4832740</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>90</v>
-      </c>
-      <c r="C16">
-        <v>13779429</v>
-      </c>
-      <c r="G16">
-        <v>5323292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
         <v>100</v>
       </c>
-      <c r="C17">
-        <v>14324902</v>
-      </c>
-      <c r="G17">
-        <v>5868765</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>44</v>
+      <c r="I13">
+        <v>1152590</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA16489-9B11-4EB2-A366-9BA647DFE976}">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>52248</v>
-      </c>
-      <c r="E4">
-        <v>29182</v>
-      </c>
-      <c r="G4">
-        <v>47035</v>
-      </c>
-      <c r="I4">
-        <v>145000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>256961</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>30</v>
-      </c>
-      <c r="I6">
-        <v>368910</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="I7">
-        <v>480872</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="I8">
-        <v>592822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>60</v>
-      </c>
-      <c r="I9">
-        <v>704749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>70</v>
-      </c>
-      <c r="I10">
-        <v>816723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>80</v>
-      </c>
-      <c r="I11">
-        <v>928687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>90</v>
-      </c>
-      <c r="I12">
-        <v>1040650</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="I13">
-        <v>1152590</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1412,7 +1433,7 @@
       <c r="D6">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>1234</v>
       </c>
       <c r="H6">
@@ -1422,7 +1443,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1432,7 +1453,7 @@
       <c r="D7">
         <v>30</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>1268</v>
       </c>
       <c r="H7">
@@ -1442,7 +1463,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -1452,7 +1473,7 @@
       <c r="D8">
         <v>44</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>1249</v>
       </c>
       <c r="H8">
@@ -1462,7 +1483,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>40</v>
       </c>
@@ -1472,7 +1493,7 @@
       <c r="D9">
         <v>59</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>1350</v>
       </c>
       <c r="H9">
@@ -1482,7 +1503,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50</v>
       </c>
@@ -1492,7 +1513,7 @@
       <c r="D10">
         <v>74</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>1386</v>
       </c>
       <c r="H10">
@@ -1502,7 +1523,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60</v>
       </c>
@@ -1512,7 +1533,7 @@
       <c r="D11">
         <v>89</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>1368</v>
       </c>
       <c r="H11">
@@ -1522,7 +1543,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>70</v>
       </c>
@@ -1532,7 +1553,7 @@
       <c r="D12">
         <v>103</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>1256</v>
       </c>
       <c r="H12">
@@ -1542,7 +1563,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>80</v>
       </c>
@@ -1552,7 +1573,7 @@
       <c r="D13">
         <v>118</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>1231</v>
       </c>
       <c r="H13">
@@ -1562,7 +1583,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>90</v>
       </c>
@@ -1572,7 +1593,7 @@
       <c r="D14">
         <v>133</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>1466</v>
       </c>
       <c r="H14">
@@ -1582,7 +1603,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>100</v>
       </c>
@@ -1592,7 +1613,7 @@
       <c r="D15">
         <v>147</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>1229</v>
       </c>
       <c r="H15">
@@ -1602,9 +1623,1421 @@
         <v>695</v>
       </c>
     </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>178</v>
+      </c>
+      <c r="D23">
+        <v>184</v>
+      </c>
+      <c r="E23">
+        <v>193</v>
+      </c>
+      <c r="F23">
+        <v>257</v>
+      </c>
+      <c r="G23">
+        <v>335</v>
+      </c>
+      <c r="H23">
+        <v>490</v>
+      </c>
+      <c r="I23">
+        <v>917</v>
+      </c>
+      <c r="J23">
+        <v>1683</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>168</v>
+      </c>
+      <c r="O23">
+        <v>177</v>
+      </c>
+      <c r="P23">
+        <v>203</v>
+      </c>
+      <c r="Q23">
+        <v>255</v>
+      </c>
+      <c r="R23">
+        <v>328</v>
+      </c>
+      <c r="S23">
+        <v>509</v>
+      </c>
+      <c r="T23">
+        <v>972</v>
+      </c>
+      <c r="U23">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>194</v>
+      </c>
+      <c r="D24">
+        <v>220</v>
+      </c>
+      <c r="E24">
+        <v>252</v>
+      </c>
+      <c r="F24">
+        <v>287</v>
+      </c>
+      <c r="G24">
+        <v>366</v>
+      </c>
+      <c r="H24">
+        <v>546</v>
+      </c>
+      <c r="I24">
+        <v>893</v>
+      </c>
+      <c r="J24">
+        <v>1677</v>
+      </c>
+      <c r="L24">
+        <v>20</v>
+      </c>
+      <c r="N24">
+        <v>216</v>
+      </c>
+      <c r="O24">
+        <v>268</v>
+      </c>
+      <c r="P24">
+        <v>278</v>
+      </c>
+      <c r="Q24">
+        <v>299</v>
+      </c>
+      <c r="R24">
+        <v>380</v>
+      </c>
+      <c r="S24">
+        <v>597</v>
+      </c>
+      <c r="T24">
+        <v>1006</v>
+      </c>
+      <c r="U24">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>242</v>
+      </c>
+      <c r="D25">
+        <v>296</v>
+      </c>
+      <c r="E25">
+        <v>309</v>
+      </c>
+      <c r="F25">
+        <v>334</v>
+      </c>
+      <c r="G25">
+        <v>430</v>
+      </c>
+      <c r="H25">
+        <v>616</v>
+      </c>
+      <c r="I25">
+        <v>1001</v>
+      </c>
+      <c r="J25">
+        <v>1660</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="N25">
+        <v>274</v>
+      </c>
+      <c r="O25">
+        <v>295</v>
+      </c>
+      <c r="P25">
+        <v>323</v>
+      </c>
+      <c r="Q25">
+        <v>336</v>
+      </c>
+      <c r="R25">
+        <v>429</v>
+      </c>
+      <c r="S25">
+        <v>616</v>
+      </c>
+      <c r="T25">
+        <v>1012</v>
+      </c>
+      <c r="U25">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>340</v>
+      </c>
+      <c r="D26">
+        <v>357</v>
+      </c>
+      <c r="E26">
+        <v>386</v>
+      </c>
+      <c r="F26">
+        <v>412</v>
+      </c>
+      <c r="G26">
+        <v>509</v>
+      </c>
+      <c r="H26">
+        <v>656</v>
+      </c>
+      <c r="I26">
+        <v>1027</v>
+      </c>
+      <c r="J26">
+        <v>1713</v>
+      </c>
+      <c r="L26">
+        <v>40</v>
+      </c>
+      <c r="N26">
+        <v>315</v>
+      </c>
+      <c r="O26">
+        <v>329</v>
+      </c>
+      <c r="P26">
+        <v>390</v>
+      </c>
+      <c r="Q26">
+        <v>408</v>
+      </c>
+      <c r="R26">
+        <v>497</v>
+      </c>
+      <c r="S26">
+        <v>716</v>
+      </c>
+      <c r="T26">
+        <v>1037</v>
+      </c>
+      <c r="U26">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>365</v>
+      </c>
+      <c r="D27">
+        <v>409</v>
+      </c>
+      <c r="E27">
+        <v>435</v>
+      </c>
+      <c r="F27">
+        <v>449</v>
+      </c>
+      <c r="G27">
+        <v>573</v>
+      </c>
+      <c r="H27">
+        <v>748</v>
+      </c>
+      <c r="I27">
+        <v>1016</v>
+      </c>
+      <c r="J27">
+        <v>1765</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="N27">
+        <v>396</v>
+      </c>
+      <c r="O27">
+        <v>404</v>
+      </c>
+      <c r="P27">
+        <v>426</v>
+      </c>
+      <c r="Q27">
+        <v>484</v>
+      </c>
+      <c r="R27">
+        <v>556</v>
+      </c>
+      <c r="S27">
+        <v>771</v>
+      </c>
+      <c r="T27">
+        <v>1153</v>
+      </c>
+      <c r="U27">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>405</v>
+      </c>
+      <c r="D28">
+        <v>456</v>
+      </c>
+      <c r="E28">
+        <v>474</v>
+      </c>
+      <c r="F28">
+        <v>515</v>
+      </c>
+      <c r="G28">
+        <v>595</v>
+      </c>
+      <c r="H28">
+        <v>761</v>
+      </c>
+      <c r="I28">
+        <v>1026</v>
+      </c>
+      <c r="J28">
+        <v>1809</v>
+      </c>
+      <c r="L28">
+        <v>60</v>
+      </c>
+      <c r="N28">
+        <v>448</v>
+      </c>
+      <c r="O28">
+        <v>459</v>
+      </c>
+      <c r="P28">
+        <v>478</v>
+      </c>
+      <c r="Q28">
+        <v>536</v>
+      </c>
+      <c r="R28">
+        <v>623</v>
+      </c>
+      <c r="S28">
+        <v>849</v>
+      </c>
+      <c r="T28">
+        <v>1186</v>
+      </c>
+      <c r="U28">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>438</v>
+      </c>
+      <c r="D29">
+        <v>476</v>
+      </c>
+      <c r="E29">
+        <v>504</v>
+      </c>
+      <c r="F29">
+        <v>528</v>
+      </c>
+      <c r="G29">
+        <v>605</v>
+      </c>
+      <c r="H29">
+        <v>774</v>
+      </c>
+      <c r="I29">
+        <v>1098</v>
+      </c>
+      <c r="J29">
+        <v>1841</v>
+      </c>
+      <c r="L29">
+        <v>70</v>
+      </c>
+      <c r="N29">
+        <v>475</v>
+      </c>
+      <c r="O29">
+        <v>496</v>
+      </c>
+      <c r="P29">
+        <v>521</v>
+      </c>
+      <c r="Q29">
+        <v>558</v>
+      </c>
+      <c r="R29">
+        <v>633</v>
+      </c>
+      <c r="S29">
+        <v>845</v>
+      </c>
+      <c r="T29">
+        <v>1206</v>
+      </c>
+      <c r="U29">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>489</v>
+      </c>
+      <c r="D30">
+        <v>502</v>
+      </c>
+      <c r="E30">
+        <v>543</v>
+      </c>
+      <c r="F30">
+        <v>590</v>
+      </c>
+      <c r="G30">
+        <v>677</v>
+      </c>
+      <c r="H30">
+        <v>854</v>
+      </c>
+      <c r="I30">
+        <v>1128</v>
+      </c>
+      <c r="J30">
+        <v>1867</v>
+      </c>
+      <c r="L30">
+        <v>80</v>
+      </c>
+      <c r="N30">
+        <v>517</v>
+      </c>
+      <c r="O30">
+        <v>542</v>
+      </c>
+      <c r="P30">
+        <v>556</v>
+      </c>
+      <c r="Q30">
+        <v>598</v>
+      </c>
+      <c r="R30">
+        <v>685</v>
+      </c>
+      <c r="S30">
+        <v>882</v>
+      </c>
+      <c r="T30">
+        <v>1289</v>
+      </c>
+      <c r="U30">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>90</v>
+      </c>
+      <c r="C31">
+        <v>563</v>
+      </c>
+      <c r="D31">
+        <v>583</v>
+      </c>
+      <c r="E31">
+        <v>597</v>
+      </c>
+      <c r="F31">
+        <v>675</v>
+      </c>
+      <c r="G31">
+        <v>758</v>
+      </c>
+      <c r="H31">
+        <v>908</v>
+      </c>
+      <c r="I31">
+        <v>1210</v>
+      </c>
+      <c r="J31">
+        <v>1898</v>
+      </c>
+      <c r="L31">
+        <v>90</v>
+      </c>
+      <c r="N31">
+        <v>577</v>
+      </c>
+      <c r="O31">
+        <v>611</v>
+      </c>
+      <c r="P31">
+        <v>627</v>
+      </c>
+      <c r="Q31">
+        <v>676</v>
+      </c>
+      <c r="R31">
+        <v>794</v>
+      </c>
+      <c r="S31">
+        <v>960</v>
+      </c>
+      <c r="T31">
+        <v>1339</v>
+      </c>
+      <c r="U31">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>628</v>
+      </c>
+      <c r="D32">
+        <v>630</v>
+      </c>
+      <c r="E32">
+        <v>682</v>
+      </c>
+      <c r="F32">
+        <v>706</v>
+      </c>
+      <c r="G32">
+        <v>795</v>
+      </c>
+      <c r="H32">
+        <v>967</v>
+      </c>
+      <c r="I32">
+        <v>1274</v>
+      </c>
+      <c r="J32">
+        <v>1976</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
+      <c r="N32">
+        <v>639</v>
+      </c>
+      <c r="O32">
+        <v>655</v>
+      </c>
+      <c r="P32">
+        <v>684</v>
+      </c>
+      <c r="Q32">
+        <v>727</v>
+      </c>
+      <c r="R32">
+        <v>814</v>
+      </c>
+      <c r="S32">
+        <v>1013</v>
+      </c>
+      <c r="T32">
+        <v>1421</v>
+      </c>
+      <c r="U32">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N33" t="s">
+        <v>42</v>
+      </c>
+      <c r="O33" t="s">
+        <v>43</v>
+      </c>
+      <c r="P33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>45</v>
+      </c>
+      <c r="R33" t="s">
+        <v>46</v>
+      </c>
+      <c r="S33" t="s">
+        <v>47</v>
+      </c>
+      <c r="T33" t="s">
+        <v>48</v>
+      </c>
+      <c r="U33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="P40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>255</v>
+      </c>
+      <c r="D42">
+        <v>376</v>
+      </c>
+      <c r="E42">
+        <v>480</v>
+      </c>
+      <c r="F42">
+        <v>589</v>
+      </c>
+      <c r="G42">
+        <v>705</v>
+      </c>
+      <c r="H42">
+        <v>798</v>
+      </c>
+      <c r="I42">
+        <v>875</v>
+      </c>
+      <c r="J42">
+        <v>980</v>
+      </c>
+      <c r="K42">
+        <v>1164</v>
+      </c>
+      <c r="L42">
+        <v>1283</v>
+      </c>
+      <c r="N42">
+        <v>10</v>
+      </c>
+      <c r="P42">
+        <v>248</v>
+      </c>
+      <c r="Q42">
+        <v>352</v>
+      </c>
+      <c r="R42">
+        <v>452</v>
+      </c>
+      <c r="S42">
+        <v>576</v>
+      </c>
+      <c r="T42">
+        <v>688</v>
+      </c>
+      <c r="U42">
+        <v>775</v>
+      </c>
+      <c r="V42">
+        <v>896</v>
+      </c>
+      <c r="W42">
+        <v>1048</v>
+      </c>
+      <c r="X42">
+        <v>1131</v>
+      </c>
+      <c r="Y42">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>305</v>
+      </c>
+      <c r="D43">
+        <v>453</v>
+      </c>
+      <c r="E43">
+        <v>557</v>
+      </c>
+      <c r="F43">
+        <v>646</v>
+      </c>
+      <c r="G43">
+        <v>754</v>
+      </c>
+      <c r="H43">
+        <v>857</v>
+      </c>
+      <c r="I43">
+        <v>947</v>
+      </c>
+      <c r="J43">
+        <v>1104</v>
+      </c>
+      <c r="K43">
+        <v>1251</v>
+      </c>
+      <c r="L43">
+        <v>1344</v>
+      </c>
+      <c r="N43">
+        <v>20</v>
+      </c>
+      <c r="P43">
+        <v>321</v>
+      </c>
+      <c r="Q43">
+        <v>404</v>
+      </c>
+      <c r="R43">
+        <v>502</v>
+      </c>
+      <c r="S43">
+        <v>615</v>
+      </c>
+      <c r="T43">
+        <v>708</v>
+      </c>
+      <c r="U43">
+        <v>839</v>
+      </c>
+      <c r="V43">
+        <v>912</v>
+      </c>
+      <c r="W43">
+        <v>1057</v>
+      </c>
+      <c r="X43">
+        <v>1150</v>
+      </c>
+      <c r="Y43">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>351</v>
+      </c>
+      <c r="D44">
+        <v>477</v>
+      </c>
+      <c r="E44">
+        <v>598</v>
+      </c>
+      <c r="F44">
+        <v>708</v>
+      </c>
+      <c r="G44">
+        <v>824</v>
+      </c>
+      <c r="H44">
+        <v>936</v>
+      </c>
+      <c r="I44">
+        <v>994</v>
+      </c>
+      <c r="J44">
+        <v>1147</v>
+      </c>
+      <c r="K44">
+        <v>1283</v>
+      </c>
+      <c r="L44">
+        <v>1373</v>
+      </c>
+      <c r="N44">
+        <v>30</v>
+      </c>
+      <c r="P44">
+        <v>367</v>
+      </c>
+      <c r="Q44">
+        <v>498</v>
+      </c>
+      <c r="R44">
+        <v>597</v>
+      </c>
+      <c r="S44">
+        <v>702</v>
+      </c>
+      <c r="T44">
+        <v>804</v>
+      </c>
+      <c r="U44">
+        <v>916</v>
+      </c>
+      <c r="V44">
+        <v>1046</v>
+      </c>
+      <c r="W44">
+        <v>1116</v>
+      </c>
+      <c r="X44">
+        <v>1221</v>
+      </c>
+      <c r="Y44">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>419</v>
+      </c>
+      <c r="D45">
+        <v>522</v>
+      </c>
+      <c r="E45">
+        <v>619</v>
+      </c>
+      <c r="F45">
+        <v>769</v>
+      </c>
+      <c r="G45">
+        <v>887</v>
+      </c>
+      <c r="H45">
+        <v>986</v>
+      </c>
+      <c r="I45">
+        <v>1075</v>
+      </c>
+      <c r="J45">
+        <v>1156</v>
+      </c>
+      <c r="K45">
+        <v>1311</v>
+      </c>
+      <c r="L45">
+        <v>1400</v>
+      </c>
+      <c r="N45">
+        <v>40</v>
+      </c>
+      <c r="P45">
+        <v>432</v>
+      </c>
+      <c r="Q45">
+        <v>523</v>
+      </c>
+      <c r="R45">
+        <v>630</v>
+      </c>
+      <c r="S45">
+        <v>747</v>
+      </c>
+      <c r="T45">
+        <v>868</v>
+      </c>
+      <c r="U45">
+        <v>1004</v>
+      </c>
+      <c r="V45">
+        <v>1074</v>
+      </c>
+      <c r="W45">
+        <v>1179</v>
+      </c>
+      <c r="X45">
+        <v>1328</v>
+      </c>
+      <c r="Y45">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>481</v>
+      </c>
+      <c r="D46">
+        <v>577</v>
+      </c>
+      <c r="E46">
+        <v>680</v>
+      </c>
+      <c r="F46">
+        <v>826</v>
+      </c>
+      <c r="G46">
+        <v>902</v>
+      </c>
+      <c r="H46">
+        <v>1015</v>
+      </c>
+      <c r="I46">
+        <v>1099</v>
+      </c>
+      <c r="J46">
+        <v>1181</v>
+      </c>
+      <c r="K46">
+        <v>1334</v>
+      </c>
+      <c r="L46">
+        <v>1462</v>
+      </c>
+      <c r="N46">
+        <v>50</v>
+      </c>
+      <c r="P46">
+        <v>494</v>
+      </c>
+      <c r="Q46">
+        <v>589</v>
+      </c>
+      <c r="R46">
+        <v>698</v>
+      </c>
+      <c r="S46">
+        <v>814</v>
+      </c>
+      <c r="T46">
+        <v>942</v>
+      </c>
+      <c r="U46">
+        <v>1042</v>
+      </c>
+      <c r="V46">
+        <v>1164</v>
+      </c>
+      <c r="W46">
+        <v>1310</v>
+      </c>
+      <c r="X46">
+        <v>1374</v>
+      </c>
+      <c r="Y46">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <v>521</v>
+      </c>
+      <c r="D47">
+        <v>652</v>
+      </c>
+      <c r="E47">
+        <v>740</v>
+      </c>
+      <c r="F47">
+        <v>851</v>
+      </c>
+      <c r="G47">
+        <v>958</v>
+      </c>
+      <c r="H47">
+        <v>1092</v>
+      </c>
+      <c r="I47">
+        <v>1121</v>
+      </c>
+      <c r="J47">
+        <v>1251</v>
+      </c>
+      <c r="K47">
+        <v>1357</v>
+      </c>
+      <c r="L47">
+        <v>1471</v>
+      </c>
+      <c r="N47">
+        <v>60</v>
+      </c>
+      <c r="P47">
+        <v>554</v>
+      </c>
+      <c r="Q47">
+        <v>658</v>
+      </c>
+      <c r="R47">
+        <v>743</v>
+      </c>
+      <c r="S47">
+        <v>869</v>
+      </c>
+      <c r="T47">
+        <v>974</v>
+      </c>
+      <c r="U47">
+        <v>1083</v>
+      </c>
+      <c r="V47">
+        <v>1194</v>
+      </c>
+      <c r="W47">
+        <v>1302</v>
+      </c>
+      <c r="X47">
+        <v>1453</v>
+      </c>
+      <c r="Y47">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>70</v>
+      </c>
+      <c r="C48">
+        <v>575</v>
+      </c>
+      <c r="D48">
+        <v>691</v>
+      </c>
+      <c r="E48">
+        <v>814</v>
+      </c>
+      <c r="F48">
+        <v>917</v>
+      </c>
+      <c r="G48">
+        <v>999</v>
+      </c>
+      <c r="H48">
+        <v>1153</v>
+      </c>
+      <c r="I48">
+        <v>1213</v>
+      </c>
+      <c r="J48">
+        <v>1286</v>
+      </c>
+      <c r="K48">
+        <v>1479</v>
+      </c>
+      <c r="L48">
+        <v>1560</v>
+      </c>
+      <c r="N48">
+        <v>70</v>
+      </c>
+      <c r="P48">
+        <v>605</v>
+      </c>
+      <c r="Q48">
+        <v>686</v>
+      </c>
+      <c r="R48">
+        <v>791</v>
+      </c>
+      <c r="S48">
+        <v>905</v>
+      </c>
+      <c r="T48">
+        <v>1016</v>
+      </c>
+      <c r="U48">
+        <v>1114</v>
+      </c>
+      <c r="V48">
+        <v>1257</v>
+      </c>
+      <c r="W48">
+        <v>1401</v>
+      </c>
+      <c r="X48">
+        <v>1480</v>
+      </c>
+      <c r="Y48">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>80</v>
+      </c>
+      <c r="C49">
+        <v>607</v>
+      </c>
+      <c r="D49">
+        <v>730</v>
+      </c>
+      <c r="E49">
+        <v>876</v>
+      </c>
+      <c r="F49">
+        <v>979</v>
+      </c>
+      <c r="G49">
+        <v>1116</v>
+      </c>
+      <c r="H49">
+        <v>1208</v>
+      </c>
+      <c r="I49">
+        <v>1291</v>
+      </c>
+      <c r="J49">
+        <v>1427</v>
+      </c>
+      <c r="K49">
+        <v>1481</v>
+      </c>
+      <c r="L49">
+        <v>1581</v>
+      </c>
+      <c r="N49">
+        <v>80</v>
+      </c>
+      <c r="P49">
+        <v>689</v>
+      </c>
+      <c r="Q49">
+        <v>788</v>
+      </c>
+      <c r="R49">
+        <v>892</v>
+      </c>
+      <c r="S49">
+        <v>1004</v>
+      </c>
+      <c r="T49">
+        <v>1148</v>
+      </c>
+      <c r="U49">
+        <v>1242</v>
+      </c>
+      <c r="V49">
+        <v>1376</v>
+      </c>
+      <c r="W49">
+        <v>1505</v>
+      </c>
+      <c r="X49">
+        <v>1634</v>
+      </c>
+      <c r="Y49">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>90</v>
+      </c>
+      <c r="C50">
+        <v>686</v>
+      </c>
+      <c r="D50">
+        <v>827</v>
+      </c>
+      <c r="E50">
+        <v>914</v>
+      </c>
+      <c r="F50">
+        <v>1012</v>
+      </c>
+      <c r="G50">
+        <v>1172</v>
+      </c>
+      <c r="H50">
+        <v>1245</v>
+      </c>
+      <c r="I50">
+        <v>1367</v>
+      </c>
+      <c r="J50">
+        <v>1516</v>
+      </c>
+      <c r="K50">
+        <v>1603</v>
+      </c>
+      <c r="L50">
+        <v>1627</v>
+      </c>
+      <c r="N50">
+        <v>90</v>
+      </c>
+      <c r="P50">
+        <v>742</v>
+      </c>
+      <c r="Q50">
+        <v>805</v>
+      </c>
+      <c r="R50">
+        <v>907</v>
+      </c>
+      <c r="S50">
+        <v>1012</v>
+      </c>
+      <c r="T50">
+        <v>1175</v>
+      </c>
+      <c r="U50">
+        <v>1295</v>
+      </c>
+      <c r="V50">
+        <v>1406</v>
+      </c>
+      <c r="W50">
+        <v>1546</v>
+      </c>
+      <c r="X50">
+        <v>1705</v>
+      </c>
+      <c r="Y50">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>100</v>
+      </c>
+      <c r="C51">
+        <v>704</v>
+      </c>
+      <c r="D51">
+        <v>827</v>
+      </c>
+      <c r="E51">
+        <v>945</v>
+      </c>
+      <c r="F51">
+        <v>1052</v>
+      </c>
+      <c r="G51">
+        <v>1180</v>
+      </c>
+      <c r="H51">
+        <v>1270</v>
+      </c>
+      <c r="I51">
+        <v>1450</v>
+      </c>
+      <c r="J51">
+        <v>1607</v>
+      </c>
+      <c r="K51">
+        <v>1713</v>
+      </c>
+      <c r="L51">
+        <v>1799</v>
+      </c>
+      <c r="N51">
+        <v>100</v>
+      </c>
+      <c r="P51">
+        <v>758</v>
+      </c>
+      <c r="Q51">
+        <v>856</v>
+      </c>
+      <c r="R51">
+        <v>973</v>
+      </c>
+      <c r="S51">
+        <v>1075</v>
+      </c>
+      <c r="T51">
+        <v>1225</v>
+      </c>
+      <c r="U51">
+        <v>1354</v>
+      </c>
+      <c r="V51">
+        <v>1436</v>
+      </c>
+      <c r="W51">
+        <v>1604</v>
+      </c>
+      <c r="X51">
+        <v>1738</v>
+      </c>
+      <c r="Y51">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
+      </c>
+      <c r="F52">
+        <v>40</v>
+      </c>
+      <c r="G52">
+        <v>50</v>
+      </c>
+      <c r="H52">
+        <v>60</v>
+      </c>
+      <c r="I52">
+        <v>70</v>
+      </c>
+      <c r="J52">
+        <v>80</v>
+      </c>
+      <c r="K52">
+        <v>90</v>
+      </c>
+      <c r="L52">
+        <v>100</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52">
+        <v>10</v>
+      </c>
+      <c r="Q52">
+        <v>20</v>
+      </c>
+      <c r="R52">
+        <v>30</v>
+      </c>
+      <c r="S52">
+        <v>40</v>
+      </c>
+      <c r="T52">
+        <v>50</v>
+      </c>
+      <c r="U52">
+        <v>60</v>
+      </c>
+      <c r="V52">
+        <v>70</v>
+      </c>
+      <c r="W52">
+        <v>80</v>
+      </c>
+      <c r="X52">
+        <v>90</v>
+      </c>
+      <c r="Y52">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Testdata.xlsx
+++ b/Testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14033\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14033\Documents\GitHub\BASICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8095742-88DF-4023-9EAE-F63BE1B3817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F84AB6-ADAD-45B7-8777-E4072110EFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig4 offchain" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>Time</t>
   </si>
@@ -215,12 +215,105 @@
     <t>constant</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>(after optimization in go)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(python test)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>（python）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(go)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remix test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ase on golang</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ew checkkey</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>024.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.22</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>based on remix</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkkey</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkkey'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +357,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -285,12 +393,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -568,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -710,20 +820,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
+      <c r="B1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -741,7 +851,55 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>53188</v>
+      </c>
+      <c r="F13">
+        <v>53167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>8015116</v>
+      </c>
+      <c r="F16">
+        <v>451092</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -755,7 +913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -1223,15 +1381,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="10.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>27</v>
       </c>
@@ -1245,12 +1406,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1266,82 +1436,137 @@
       <c r="I4">
         <v>145000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>33863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
       <c r="I5">
         <v>256961</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>38812</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
       <c r="I6">
         <v>368910</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>43762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40</v>
       </c>
+      <c r="C7">
+        <v>44866</v>
+      </c>
+      <c r="E7">
+        <v>44732</v>
+      </c>
+      <c r="G7">
+        <v>30609</v>
+      </c>
       <c r="I7">
         <v>480872</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>48712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
       <c r="I8">
         <v>592822</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>53662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="I9">
         <v>704749</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>58612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>70</v>
       </c>
+      <c r="C10">
+        <v>52305</v>
+      </c>
+      <c r="E10">
+        <v>51982</v>
+      </c>
+      <c r="G10">
+        <v>47291</v>
+      </c>
       <c r="I10">
         <v>816723</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>63563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>80</v>
       </c>
       <c r="I11">
         <v>928687</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>68515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>90</v>
       </c>
       <c r="I12">
         <v>1040650</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>73466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100</v>
       </c>
       <c r="I13">
         <v>1152590</v>
+      </c>
+      <c r="K13">
+        <v>78419</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1349,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Testdata.xlsx
+++ b/Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14033\Documents\GitHub\BASICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F84AB6-ADAD-45B7-8777-E4072110EFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53559A47-432E-499B-957C-B7DA1D9017C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig4 offchain" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>Time</t>
   </si>
@@ -62,9 +62,6 @@
     <t>gas</t>
   </si>
   <si>
-    <t>based on remix</t>
-  </si>
-  <si>
     <t>judgeAttr</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
   </si>
   <si>
     <t>Reward</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> authorities</t>
   </si>
   <si>
     <t>Encryption cost</t>
@@ -216,10 +210,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>(after optimization in go)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>(python test)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -228,84 +218,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>(go)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Remix test</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ase on golang</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ew checkkey</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>024.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6.22</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>based on remix</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>checkkey</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>checkkey'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(go test)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> authorities</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorities</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>base on glang</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 auths</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -701,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -799,7 +744,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G10" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -820,88 +765,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>66</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" t="s">
+        <v>58</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>9010466</v>
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2">
+        <v>6977515</v>
+      </c>
+      <c r="L2">
+        <v>103108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>7145036</v>
       </c>
       <c r="F4">
-        <v>554329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>53188</v>
+        <v>314283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>7435836</v>
+      </c>
+      <c r="F5" s="4">
+        <v>550177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>7887996</v>
+      </c>
+      <c r="F6">
+        <v>787000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>7964369</v>
+      </c>
+      <c r="F7">
+        <v>1024933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>8211769</v>
+      </c>
+      <c r="F8">
+        <v>1264034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>8554083</v>
+      </c>
+      <c r="F9">
+        <v>1504125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>8809463</v>
+      </c>
+      <c r="F10">
+        <v>1745517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11">
+        <v>8811271</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="F11">
+        <v>1987863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>90</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12">
+        <v>9097333</v>
+      </c>
+      <c r="F12">
+        <v>2231462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>9708505</v>
       </c>
       <c r="F13">
-        <v>53167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>8015116</v>
-      </c>
-      <c r="F16">
-        <v>451092</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
+        <v>2475666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -913,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -921,38 +948,38 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>18</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>19</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>20</v>
-      </c>
-      <c r="T2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1217,10 +1244,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
         <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1233,15 +1260,15 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
         <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
       </c>
       <c r="L21" t="s">
         <v>11</v>
@@ -1255,12 +1282,12 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1381,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1392,35 +1419,32 @@
     <col min="9" max="9" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1436,36 +1460,27 @@
       <c r="I4">
         <v>145000</v>
       </c>
-      <c r="K4">
-        <v>33863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
       <c r="I5">
         <v>256961</v>
       </c>
-      <c r="K5">
-        <v>38812</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I6">
         <v>368910</v>
       </c>
-      <c r="K6">
-        <v>43762</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1481,36 +1496,27 @@
       <c r="I7">
         <v>480872</v>
       </c>
-      <c r="K7">
-        <v>48712</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
       <c r="I8">
         <v>592822</v>
       </c>
-      <c r="K8">
-        <v>53662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I9">
         <v>704749</v>
       </c>
-      <c r="K9">
-        <v>58612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>70</v>
       </c>
@@ -1526,41 +1532,29 @@
       <c r="I10">
         <v>816723</v>
       </c>
-      <c r="K10">
-        <v>63563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>80</v>
       </c>
       <c r="I11">
         <v>928687</v>
       </c>
-      <c r="K11">
-        <v>68515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>90</v>
       </c>
       <c r="I12">
         <v>1040650</v>
       </c>
-      <c r="K12">
-        <v>73466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100</v>
       </c>
       <c r="I13">
         <v>1152590</v>
-      </c>
-      <c r="K13">
-        <v>78419</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -1588,34 +1582,34 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
       </c>
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -1624,19 +1618,19 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1644,7 +1638,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1853,26 +1847,26 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" t="s">
         <v>32</v>
-      </c>
-      <c r="N20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2437,79 +2431,79 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
         <v>42</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>43</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>44</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>45</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
         <v>46</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33" t="s">
         <v>47</v>
       </c>
-      <c r="I33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J33" t="s">
-        <v>49</v>
-      </c>
       <c r="N33" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" t="s">
         <v>42</v>
       </c>
-      <c r="O33" t="s">
+      <c r="Q33" t="s">
         <v>43</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>44</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="S33" t="s">
         <v>45</v>
       </c>
-      <c r="R33" t="s">
+      <c r="T33" t="s">
         <v>46</v>
       </c>
-      <c r="S33" t="s">
+      <c r="U33" t="s">
         <v>47</v>
-      </c>
-      <c r="T33" t="s">
-        <v>48</v>
-      </c>
-      <c r="U33" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" t="s">
         <v>32</v>
-      </c>
-      <c r="P39" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -3194,7 +3188,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52">
         <v>10</v>
@@ -3227,7 +3221,7 @@
         <v>100</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P52">
         <v>10</v>
